--- a/Code/Results/Cases/Case_7_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_31/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.93828117109268</v>
+        <v>16.9491810640276</v>
       </c>
       <c r="C2">
-        <v>12.96036191529837</v>
+        <v>7.051071769739009</v>
       </c>
       <c r="D2">
-        <v>5.574900604484196</v>
+        <v>6.278128079885008</v>
       </c>
       <c r="E2">
-        <v>6.130720773937137</v>
+        <v>6.315516531729439</v>
       </c>
       <c r="F2">
-        <v>38.58616800609951</v>
+        <v>36.34486760187905</v>
       </c>
       <c r="G2">
-        <v>2.106570278114209</v>
+        <v>2.144043815027867</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.51091212039422</v>
+        <v>13.24938788372401</v>
       </c>
       <c r="L2">
-        <v>6.179453567747471</v>
+        <v>6.232244105501286</v>
       </c>
       <c r="M2">
-        <v>13.61005112673352</v>
+        <v>11.62134124085984</v>
       </c>
       <c r="N2">
-        <v>15.50058416750202</v>
+        <v>17.70056071224214</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.54394891939716</v>
+        <v>16.06643165710652</v>
       </c>
       <c r="C3">
-        <v>12.06977909762016</v>
+        <v>6.65922494358822</v>
       </c>
       <c r="D3">
-        <v>5.654716432612576</v>
+        <v>6.341951134386989</v>
       </c>
       <c r="E3">
-        <v>6.128472041631587</v>
+        <v>6.321687705265531</v>
       </c>
       <c r="F3">
-        <v>37.10066977865647</v>
+        <v>35.39946202438631</v>
       </c>
       <c r="G3">
-        <v>2.117730904194627</v>
+        <v>2.152639378911057</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.30759188446044</v>
+        <v>12.57271868249316</v>
       </c>
       <c r="L3">
-        <v>6.108144651632112</v>
+        <v>6.163261885508489</v>
       </c>
       <c r="M3">
-        <v>13.08223237519796</v>
+        <v>11.30814213380462</v>
       </c>
       <c r="N3">
-        <v>15.64521127080133</v>
+        <v>17.7810791820954</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.66126535794352</v>
+        <v>15.51191525931845</v>
       </c>
       <c r="C4">
-        <v>11.49635071427545</v>
+        <v>6.408380781134114</v>
       </c>
       <c r="D4">
-        <v>5.705187890795539</v>
+        <v>6.381229528142214</v>
       </c>
       <c r="E4">
-        <v>6.127776433837886</v>
+        <v>6.32742699430308</v>
       </c>
       <c r="F4">
-        <v>36.19712647659004</v>
+        <v>34.83186948932161</v>
       </c>
       <c r="G4">
-        <v>2.124737767592219</v>
+        <v>2.158059460787318</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.58841299585538</v>
+        <v>12.14838308293305</v>
       </c>
       <c r="L4">
-        <v>6.067532031497787</v>
+        <v>6.123718513075738</v>
       </c>
       <c r="M4">
-        <v>12.75845562768036</v>
+        <v>11.11900003752344</v>
       </c>
       <c r="N4">
-        <v>15.73924241185535</v>
+        <v>17.83561647603153</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.29512553397053</v>
+        <v>15.28306751317488</v>
       </c>
       <c r="C5">
-        <v>11.25587958749228</v>
+        <v>6.30359382282789</v>
       </c>
       <c r="D5">
-        <v>5.726121151927781</v>
+        <v>6.39727589879411</v>
       </c>
       <c r="E5">
-        <v>6.12765351497389</v>
+        <v>6.330246466684321</v>
       </c>
       <c r="F5">
-        <v>35.83135849310594</v>
+        <v>34.60395193606544</v>
       </c>
       <c r="G5">
-        <v>2.127634626319499</v>
+        <v>2.160305491232656</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.28996138222738</v>
+        <v>11.97344376938743</v>
       </c>
       <c r="L5">
-        <v>6.051765025236223</v>
+        <v>6.108305805006207</v>
       </c>
       <c r="M5">
-        <v>12.6267321172315</v>
+        <v>11.04279490673278</v>
       </c>
       <c r="N5">
-        <v>15.7788277716962</v>
+        <v>17.85908200044728</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.23394808026396</v>
+        <v>15.24490252654072</v>
       </c>
       <c r="C6">
-        <v>11.21553636704623</v>
+        <v>6.28603960344947</v>
       </c>
       <c r="D6">
-        <v>5.729619148261108</v>
+        <v>6.399943291505015</v>
       </c>
       <c r="E6">
-        <v>6.127642481335818</v>
+        <v>6.330743391799842</v>
       </c>
       <c r="F6">
-        <v>35.77077904339902</v>
+        <v>34.56631474214329</v>
       </c>
       <c r="G6">
-        <v>2.128118230186455</v>
+        <v>2.160680738124023</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.24008545747249</v>
+        <v>11.9442801438609</v>
       </c>
       <c r="L6">
-        <v>6.049193787580704</v>
+        <v>6.105788729437385</v>
       </c>
       <c r="M6">
-        <v>12.6048772059505</v>
+        <v>11.03019603779791</v>
       </c>
       <c r="N6">
-        <v>15.78547611056188</v>
+        <v>17.86305225510995</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.65635316043766</v>
+        <v>15.50884019991725</v>
       </c>
       <c r="C7">
-        <v>11.49313527571163</v>
+        <v>6.406977953835792</v>
       </c>
       <c r="D7">
-        <v>5.705468725438025</v>
+        <v>6.381445750735279</v>
       </c>
       <c r="E7">
-        <v>6.127774140668301</v>
+        <v>6.327463085059135</v>
       </c>
       <c r="F7">
-        <v>36.19218334463906</v>
+        <v>34.8287818368872</v>
       </c>
       <c r="G7">
-        <v>2.12477666413015</v>
+        <v>2.158089598578272</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.5844094659694</v>
+        <v>12.14603166112942</v>
       </c>
       <c r="L7">
-        <v>6.067316241195028</v>
+        <v>6.123507819319948</v>
       </c>
       <c r="M7">
-        <v>12.75667807419616</v>
+        <v>11.11796867572684</v>
       </c>
       <c r="N7">
-        <v>15.73977120357593</v>
+        <v>17.83592796685748</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.46314453687679</v>
+        <v>16.64754825261596</v>
       </c>
       <c r="C8">
-        <v>12.65874488037008</v>
+        <v>6.918093257078631</v>
       </c>
       <c r="D8">
-        <v>5.602115259301733</v>
+        <v>6.300126218834673</v>
       </c>
       <c r="E8">
-        <v>6.129795746665623</v>
+        <v>6.317233624996497</v>
       </c>
       <c r="F8">
-        <v>38.07234492891097</v>
+        <v>36.01629834489054</v>
       </c>
       <c r="G8">
-        <v>2.110388173188197</v>
+        <v>2.146978950919153</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.05996564343302</v>
+        <v>13.01802357686999</v>
       </c>
       <c r="L8">
-        <v>6.154199306184008</v>
+        <v>6.207872257866495</v>
       </c>
       <c r="M8">
-        <v>13.42807394171595</v>
+        <v>11.51273838028125</v>
       </c>
       <c r="N8">
-        <v>15.54933541851807</v>
+        <v>17.72723963911243</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.78935025283118</v>
+        <v>18.77225891151292</v>
       </c>
       <c r="C9">
-        <v>14.73873771711271</v>
+        <v>7.839172434950097</v>
       </c>
       <c r="D9">
-        <v>5.411258034587143</v>
+        <v>6.140529473459917</v>
       </c>
       <c r="E9">
-        <v>6.139800222672404</v>
+        <v>6.31310680312965</v>
       </c>
       <c r="F9">
-        <v>41.81793701678819</v>
+        <v>38.4416880270977</v>
       </c>
       <c r="G9">
-        <v>2.083259872905034</v>
+        <v>2.126247489650366</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.16702408374268</v>
+        <v>14.65057271058194</v>
       </c>
       <c r="L9">
-        <v>6.350412870084885</v>
+        <v>6.395854335231204</v>
       </c>
       <c r="M9">
-        <v>14.74208941360238</v>
+        <v>12.30886387222677</v>
       </c>
       <c r="N9">
-        <v>15.21988511863797</v>
+        <v>17.55657008946696</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.23302752544105</v>
+        <v>20.25858348523919</v>
       </c>
       <c r="C10">
-        <v>16.14995613243652</v>
+        <v>8.46730742558592</v>
       </c>
       <c r="D10">
-        <v>5.278704184479686</v>
+        <v>6.021895536265498</v>
       </c>
       <c r="E10">
-        <v>6.151810623017606</v>
+        <v>6.320461561296058</v>
       </c>
       <c r="F10">
-        <v>44.5985292458361</v>
+        <v>40.27639595896117</v>
       </c>
       <c r="G10">
-        <v>2.063779991425598</v>
+        <v>2.1115494191839</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.27091239714242</v>
+        <v>15.93122562681392</v>
       </c>
       <c r="L10">
-        <v>6.511335762104017</v>
+        <v>6.548034310710325</v>
       </c>
       <c r="M10">
-        <v>15.70114712544308</v>
+        <v>12.903516704251</v>
       </c>
       <c r="N10">
-        <v>15.00873136467608</v>
+        <v>17.46014225139013</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.33281188259084</v>
+        <v>20.91759452401746</v>
       </c>
       <c r="C11">
-        <v>16.76876008045814</v>
+        <v>8.742916174629368</v>
       </c>
       <c r="D11">
-        <v>5.220243421600817</v>
+        <v>5.967303054484375</v>
       </c>
       <c r="E11">
-        <v>6.158551491560357</v>
+        <v>6.32622193196353</v>
       </c>
       <c r="F11">
-        <v>45.87000919604866</v>
+        <v>41.12170844954709</v>
       </c>
       <c r="G11">
-        <v>2.054961756158709</v>
+        <v>2.104951487950859</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.19219780417021</v>
+        <v>16.54463920983749</v>
       </c>
       <c r="L11">
-        <v>6.588442205665138</v>
+        <v>6.620398103425376</v>
       </c>
       <c r="M11">
-        <v>16.13566303886074</v>
+        <v>13.1755610895066</v>
       </c>
       <c r="N11">
-        <v>14.92049153080248</v>
+        <v>17.42333240603801</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.74390587357085</v>
+        <v>21.16465580023277</v>
       </c>
       <c r="C12">
-        <v>16.99996433673111</v>
+        <v>8.845870054808005</v>
       </c>
       <c r="D12">
-        <v>5.198392271418982</v>
+        <v>5.946510302329393</v>
       </c>
       <c r="E12">
-        <v>6.161314477018809</v>
+        <v>6.32876468566323</v>
       </c>
       <c r="F12">
-        <v>46.35258416068616</v>
+        <v>41.44331732205507</v>
       </c>
       <c r="G12">
-        <v>2.051623528590974</v>
+        <v>2.102463219900019</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.53620610943675</v>
+        <v>16.77309078396745</v>
       </c>
       <c r="L12">
-        <v>6.618226648208525</v>
+        <v>6.648258731727259</v>
       </c>
       <c r="M12">
-        <v>16.31176497226704</v>
+        <v>13.27876244651429</v>
       </c>
       <c r="N12">
-        <v>14.88831350220755</v>
+        <v>17.41048028005061</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.65560327686869</v>
+        <v>21.11155763492241</v>
       </c>
       <c r="C13">
-        <v>16.95030566812037</v>
+        <v>8.823759143100066</v>
       </c>
       <c r="D13">
-        <v>5.203085128456815</v>
+        <v>5.950994229232814</v>
       </c>
       <c r="E13">
-        <v>6.160709589061303</v>
+        <v>6.328200746201966</v>
       </c>
       <c r="F13">
-        <v>46.24860082397946</v>
+        <v>41.37398612642398</v>
       </c>
       <c r="G13">
-        <v>2.052342518902808</v>
+        <v>2.102998700154763</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.46232912277514</v>
+        <v>16.72405817148965</v>
       </c>
       <c r="L13">
-        <v>6.611785534089567</v>
+        <v>6.64223794678266</v>
       </c>
       <c r="M13">
-        <v>16.26458446485419</v>
+        <v>13.25652844789431</v>
       </c>
       <c r="N13">
-        <v>14.89518663437861</v>
+        <v>17.41319863993096</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.36673868089506</v>
+        <v>20.93797038152332</v>
       </c>
       <c r="C14">
-        <v>16.78784270139828</v>
+        <v>8.751414288363364</v>
       </c>
       <c r="D14">
-        <v>5.218439816744048</v>
+        <v>5.965595004705044</v>
       </c>
       <c r="E14">
-        <v>6.158774419061694</v>
+        <v>6.326423797227593</v>
       </c>
       <c r="F14">
-        <v>45.90968777143732</v>
+        <v>41.14813723179533</v>
       </c>
       <c r="G14">
-        <v>2.054687129290166</v>
+        <v>2.104746586738243</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.22059527332533</v>
+        <v>16.56351018587086</v>
       </c>
       <c r="L14">
-        <v>6.590880689250941</v>
+        <v>6.622680988550504</v>
       </c>
       <c r="M14">
-        <v>16.14918445196835</v>
+        <v>13.18404800265725</v>
       </c>
       <c r="N14">
-        <v>14.917818734056</v>
+        <v>17.42225282841146</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.18911054710514</v>
+        <v>20.83131842077991</v>
       </c>
       <c r="C15">
-        <v>16.68792932759214</v>
+        <v>8.706918407811571</v>
       </c>
       <c r="D15">
-        <v>5.227883117956157</v>
+        <v>5.97452186504005</v>
       </c>
       <c r="E15">
-        <v>6.157617335803903</v>
+        <v>6.325382872382962</v>
       </c>
       <c r="F15">
-        <v>45.70224240737914</v>
+        <v>41.00999432002176</v>
       </c>
       <c r="G15">
-        <v>2.056123241885546</v>
+        <v>2.105818471872651</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.07190209778</v>
+        <v>16.46467425761599</v>
       </c>
       <c r="L15">
-        <v>6.57815298211544</v>
+        <v>6.610761671367156</v>
       </c>
       <c r="M15">
-        <v>16.07846724409627</v>
+        <v>13.13967473782722</v>
       </c>
       <c r="N15">
-        <v>14.93184622682609</v>
+        <v>17.4279426097362</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.16038616567144</v>
+        <v>20.21516760286429</v>
       </c>
       <c r="C16">
-        <v>16.10906683628386</v>
+        <v>8.449095381429272</v>
       </c>
       <c r="D16">
-        <v>5.282563484301224</v>
+        <v>6.025448219470928</v>
       </c>
       <c r="E16">
-        <v>6.151397976332928</v>
+        <v>6.32013488725105</v>
       </c>
       <c r="F16">
-        <v>44.51557742528102</v>
+        <v>40.22136453470255</v>
       </c>
       <c r="G16">
-        <v>2.064356727317334</v>
+        <v>2.111982180405808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.21000756338284</v>
+        <v>15.89059417986787</v>
       </c>
       <c r="L16">
-        <v>6.506377215461614</v>
+        <v>6.543368844705016</v>
       </c>
       <c r="M16">
-        <v>15.67271476395101</v>
+        <v>12.88576542392382</v>
       </c>
       <c r="N16">
-        <v>15.01466453614982</v>
+        <v>17.46269585900529</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.51941764117506</v>
+        <v>19.83276008850189</v>
       </c>
       <c r="C17">
-        <v>15.74815962236884</v>
+        <v>8.288362241670058</v>
       </c>
       <c r="D17">
-        <v>5.316592851196001</v>
+        <v>6.056509454859169</v>
       </c>
       <c r="E17">
-        <v>6.147927392952669</v>
+        <v>6.317543656107411</v>
       </c>
       <c r="F17">
-        <v>43.78935110687861</v>
+        <v>39.74027139799241</v>
       </c>
       <c r="G17">
-        <v>2.069415309874148</v>
+        <v>2.115784346208203</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.67228852818862</v>
+        <v>15.53145226751412</v>
       </c>
       <c r="L17">
-        <v>6.4633608292257</v>
+        <v>6.502833370221131</v>
       </c>
       <c r="M17">
-        <v>15.42334071191113</v>
+        <v>12.73036326777857</v>
       </c>
       <c r="N17">
-        <v>15.06754723627372</v>
+        <v>17.48587218928829</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.14703247242034</v>
+        <v>19.61119679373885</v>
       </c>
       <c r="C18">
-        <v>15.5383808695336</v>
+        <v>8.19495580289859</v>
       </c>
       <c r="D18">
-        <v>5.336337017746269</v>
+        <v>6.074318159915037</v>
       </c>
       <c r="E18">
-        <v>6.146049593420533</v>
+        <v>6.31627961978133</v>
       </c>
       <c r="F18">
-        <v>43.37224840562897</v>
+        <v>39.46456563856555</v>
       </c>
       <c r="G18">
-        <v>2.07232929134269</v>
+        <v>2.117979723563165</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.35961966395818</v>
+        <v>15.32228664433842</v>
       </c>
       <c r="L18">
-        <v>6.438984493768659</v>
+        <v>6.479813153295169</v>
       </c>
       <c r="M18">
-        <v>15.27973880049337</v>
+        <v>12.64112587969838</v>
       </c>
       <c r="N18">
-        <v>15.09869183258785</v>
+        <v>17.49986196365746</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.02030323927477</v>
+        <v>19.53590380502003</v>
       </c>
       <c r="C19">
-        <v>15.46697058189662</v>
+        <v>8.163164441193567</v>
       </c>
       <c r="D19">
-        <v>5.343050914556254</v>
+        <v>6.080338969146302</v>
       </c>
       <c r="E19">
-        <v>6.145433392494816</v>
+        <v>6.315890102058097</v>
       </c>
       <c r="F19">
-        <v>43.23112554774991</v>
+        <v>39.37139077758548</v>
       </c>
       <c r="G19">
-        <v>2.073316821171942</v>
+        <v>2.118724567159312</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.25316556564941</v>
+        <v>15.25101728274775</v>
       </c>
       <c r="L19">
-        <v>6.430793180287614</v>
+        <v>6.472069330850973</v>
       </c>
       <c r="M19">
-        <v>15.23108907423653</v>
+        <v>12.61093799275429</v>
       </c>
       <c r="N19">
-        <v>15.10935871950855</v>
+        <v>17.50470982015703</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.58803268768337</v>
+        <v>19.87363524983829</v>
       </c>
       <c r="C20">
-        <v>15.7868045097269</v>
+        <v>8.305571315478003</v>
       </c>
       <c r="D20">
-        <v>5.312952490165436</v>
+        <v>6.05320902821656</v>
       </c>
       <c r="E20">
-        <v>6.148284410248642</v>
+        <v>6.317795968909796</v>
       </c>
       <c r="F20">
-        <v>43.86659596615907</v>
+        <v>39.7913807782606</v>
       </c>
       <c r="G20">
-        <v>2.068876393163428</v>
+        <v>2.1153787394737</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.7298782509205</v>
+        <v>15.56995144802075</v>
       </c>
       <c r="L20">
-        <v>6.467901997369429</v>
+        <v>6.507117892630651</v>
       </c>
       <c r="M20">
-        <v>15.44990451245314</v>
+        <v>12.74689130470087</v>
       </c>
       <c r="N20">
-        <v>15.06184169107916</v>
+        <v>17.48333628696834</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.45172848513296</v>
+        <v>20.98902484507662</v>
       </c>
       <c r="C21">
-        <v>16.83564498595921</v>
+        <v>8.772701680867367</v>
       </c>
       <c r="D21">
-        <v>5.213921780486932</v>
+        <v>5.961309906927722</v>
       </c>
       <c r="E21">
-        <v>6.159336881039898</v>
+        <v>6.326935802807117</v>
       </c>
       <c r="F21">
-        <v>46.00920334338009</v>
+        <v>41.21443366782699</v>
       </c>
       <c r="G21">
-        <v>2.053998476647842</v>
+        <v>2.104232933479721</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.29172789212614</v>
+        <v>16.61077008386824</v>
       </c>
       <c r="L21">
-        <v>6.597004827721667</v>
+        <v>6.628412846529301</v>
       </c>
       <c r="M21">
-        <v>16.18308670809411</v>
+        <v>13.2053324993978</v>
       </c>
       <c r="N21">
-        <v>14.91113659189693</v>
+        <v>17.41956328006452</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.63862670261119</v>
+        <v>21.70348401080041</v>
       </c>
       <c r="C22">
-        <v>17.50303473116302</v>
+        <v>9.069788657018677</v>
       </c>
       <c r="D22">
-        <v>5.150886079780638</v>
+        <v>5.900534243081134</v>
       </c>
       <c r="E22">
-        <v>6.167802283872654</v>
+        <v>6.335023255559125</v>
       </c>
       <c r="F22">
-        <v>47.41604463659726</v>
+        <v>42.15328168870145</v>
       </c>
       <c r="G22">
-        <v>2.044278076674397</v>
+        <v>2.097006776797323</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.28430353590804</v>
+        <v>17.26871682634305</v>
       </c>
       <c r="L22">
-        <v>6.684811045092543</v>
+        <v>6.710360379790117</v>
       </c>
       <c r="M22">
-        <v>16.80547666637047</v>
+        <v>13.50601544317759</v>
       </c>
       <c r="N22">
-        <v>14.81991516875276</v>
+        <v>17.38425869413472</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.00789948980698</v>
+        <v>21.32349175343662</v>
       </c>
       <c r="C23">
-        <v>17.14841519923774</v>
+        <v>8.911961895172052</v>
       </c>
       <c r="D23">
-        <v>5.184365848705064</v>
+        <v>5.933047419785477</v>
       </c>
       <c r="E23">
-        <v>6.163160458724288</v>
+        <v>6.330508421227448</v>
       </c>
       <c r="F23">
-        <v>46.66451114083412</v>
+        <v>41.65139533015002</v>
       </c>
       <c r="G23">
-        <v>2.04946764227161</v>
+        <v>2.100859062740184</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.75702260412919</v>
+        <v>16.91955497928259</v>
       </c>
       <c r="L23">
-        <v>6.637623947185924</v>
+        <v>6.666375980298185</v>
       </c>
       <c r="M23">
-        <v>16.45751874496074</v>
+        <v>13.34544655634072</v>
       </c>
       <c r="N23">
-        <v>14.86789416566347</v>
+        <v>17.40249222644733</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.55702394272885</v>
+        <v>19.85516091961072</v>
       </c>
       <c r="C24">
-        <v>15.76934029930408</v>
+        <v>8.297794207500047</v>
       </c>
       <c r="D24">
-        <v>5.314597737609586</v>
+        <v>6.054701300927853</v>
       </c>
       <c r="E24">
-        <v>6.148122638739437</v>
+        <v>6.31768119635663</v>
       </c>
       <c r="F24">
-        <v>43.83167228392109</v>
+        <v>39.76827148018975</v>
       </c>
       <c r="G24">
-        <v>2.069120019163649</v>
+        <v>2.115562084623997</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.70385294409442</v>
+        <v>15.5525543567016</v>
       </c>
       <c r="L24">
-        <v>6.46584783331937</v>
+        <v>6.50517997543835</v>
       </c>
       <c r="M24">
-        <v>15.43789574540352</v>
+        <v>12.73941864803245</v>
       </c>
       <c r="N24">
-        <v>15.06441886636003</v>
+        <v>17.48448070123877</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.91329024049387</v>
+        <v>18.21013083144275</v>
       </c>
       <c r="C25">
-        <v>14.19725838316458</v>
+        <v>7.598632025753346</v>
       </c>
       <c r="D25">
-        <v>5.461588385790936</v>
+        <v>6.18384538933477</v>
       </c>
       <c r="E25">
-        <v>6.136354780881065</v>
+        <v>6.312450268468845</v>
       </c>
       <c r="F25">
-        <v>40.79939774106896</v>
+        <v>37.77591772413111</v>
       </c>
       <c r="G25">
-        <v>2.090502823220507</v>
+        <v>2.131753671337204</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.35882019680115</v>
+        <v>14.21805857397598</v>
       </c>
       <c r="L25">
-        <v>6.294466314642736</v>
+        <v>6.342553197237648</v>
       </c>
       <c r="M25">
-        <v>14.38748719653875</v>
+        <v>12.09154487598401</v>
       </c>
       <c r="N25">
-        <v>15.30391763246401</v>
+        <v>17.59789496080085</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.9491810640276</v>
+        <v>13.41037811981304</v>
       </c>
       <c r="C2">
-        <v>7.051071769739009</v>
+        <v>7.308745678417809</v>
       </c>
       <c r="D2">
-        <v>6.278128079885008</v>
+        <v>5.178958406960361</v>
       </c>
       <c r="E2">
-        <v>6.315516531729439</v>
+        <v>7.39431669077584</v>
       </c>
       <c r="F2">
-        <v>36.34486760187905</v>
+        <v>23.43503936585642</v>
       </c>
       <c r="G2">
-        <v>2.144043815027867</v>
+        <v>32.02458773744832</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.670414654594629</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.17732785038798</v>
       </c>
       <c r="K2">
-        <v>13.24938788372401</v>
+        <v>18.13249749463464</v>
       </c>
       <c r="L2">
-        <v>6.232244105501286</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.62134124085984</v>
+        <v>11.35709495459339</v>
       </c>
       <c r="N2">
-        <v>17.70056071224214</v>
+        <v>6.649938875582004</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.11782346461277</v>
+      </c>
+      <c r="P2">
+        <v>13.78076764960399</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.06643165710652</v>
+        <v>12.581060890681</v>
       </c>
       <c r="C3">
-        <v>6.65922494358822</v>
+        <v>6.987270902291197</v>
       </c>
       <c r="D3">
-        <v>6.341951134386989</v>
+        <v>5.087652115414688</v>
       </c>
       <c r="E3">
-        <v>6.321687705265531</v>
+        <v>7.222581639530645</v>
       </c>
       <c r="F3">
-        <v>35.39946202438631</v>
+        <v>22.94319934499334</v>
       </c>
       <c r="G3">
-        <v>2.152639378911057</v>
+        <v>31.33270214366765</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.893593758618415</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.14195000304834</v>
       </c>
       <c r="K3">
-        <v>12.57271868249316</v>
+        <v>18.06719289061062</v>
       </c>
       <c r="L3">
-        <v>6.163261885508489</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.30814213380462</v>
+        <v>10.65405902930453</v>
       </c>
       <c r="N3">
-        <v>17.7810791820954</v>
+        <v>6.457708649563234</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.733783082941969</v>
+      </c>
+      <c r="P3">
+        <v>13.94182879564942</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.51191525931845</v>
+        <v>12.04585794170764</v>
       </c>
       <c r="C4">
-        <v>6.408380781134114</v>
+        <v>6.78198178500447</v>
       </c>
       <c r="D4">
-        <v>6.381229528142214</v>
+        <v>5.029855476782695</v>
       </c>
       <c r="E4">
-        <v>6.32742699430308</v>
+        <v>7.114095338521176</v>
       </c>
       <c r="F4">
-        <v>34.83186948932161</v>
+        <v>22.64983349525688</v>
       </c>
       <c r="G4">
-        <v>2.158059460787318</v>
+        <v>30.92067345371475</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.035358416230071</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.12501153199936</v>
       </c>
       <c r="K4">
-        <v>12.14838308293305</v>
+        <v>18.03493558490959</v>
       </c>
       <c r="L4">
-        <v>6.123718513075738</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.11900003752344</v>
+        <v>10.19833526750351</v>
       </c>
       <c r="N4">
-        <v>17.83561647603153</v>
+        <v>6.33635883888754</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.491391929059553</v>
+      </c>
+      <c r="P4">
+        <v>14.04295603996956</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.28306751317488</v>
+        <v>11.82132114939799</v>
       </c>
       <c r="C5">
-        <v>6.30359382282789</v>
+        <v>6.696373107274832</v>
       </c>
       <c r="D5">
-        <v>6.39727589879411</v>
+        <v>5.005878597872668</v>
       </c>
       <c r="E5">
-        <v>6.330246466684321</v>
+        <v>7.069125665964927</v>
       </c>
       <c r="F5">
-        <v>34.60395193606544</v>
+        <v>22.53254798987961</v>
       </c>
       <c r="G5">
-        <v>2.160305491232656</v>
+        <v>30.75610324010257</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.094338078608616</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.11928359644016</v>
       </c>
       <c r="K5">
-        <v>11.97344376938743</v>
+        <v>18.0237125588462</v>
       </c>
       <c r="L5">
-        <v>6.108305805006207</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.04279490673278</v>
+        <v>10.00658689549457</v>
       </c>
       <c r="N5">
-        <v>17.85908200044728</v>
+        <v>6.286109140871337</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.391076546093737</v>
+      </c>
+      <c r="P5">
+        <v>14.08473961940946</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.24490252654072</v>
+        <v>11.78365170724591</v>
       </c>
       <c r="C6">
-        <v>6.28603960344947</v>
+        <v>6.682041172014531</v>
       </c>
       <c r="D6">
-        <v>6.399943291505015</v>
+        <v>5.001871987335059</v>
       </c>
       <c r="E6">
-        <v>6.330743391799842</v>
+        <v>7.061612687463962</v>
       </c>
       <c r="F6">
-        <v>34.56631474214329</v>
+        <v>22.51321218942991</v>
       </c>
       <c r="G6">
-        <v>2.160680738124023</v>
+        <v>30.72898119490527</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.10420521181843</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.11840258391346</v>
       </c>
       <c r="K6">
-        <v>11.9442801438609</v>
+        <v>18.02196360893066</v>
       </c>
       <c r="L6">
-        <v>6.105788729437385</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.03019603779791</v>
+        <v>9.974383153494895</v>
       </c>
       <c r="N6">
-        <v>17.86305225510995</v>
+        <v>6.277718100693511</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.374330008884931</v>
+      </c>
+      <c r="P6">
+        <v>14.09171271054396</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.50884019991725</v>
+        <v>12.0428556701736</v>
       </c>
       <c r="C7">
-        <v>6.406977953835792</v>
+        <v>6.780835085945471</v>
       </c>
       <c r="D7">
-        <v>6.381445750735279</v>
+        <v>5.029533818053034</v>
       </c>
       <c r="E7">
-        <v>6.327463085059135</v>
+        <v>7.113491935379628</v>
       </c>
       <c r="F7">
-        <v>34.8287818368872</v>
+        <v>22.64824245605555</v>
       </c>
       <c r="G7">
-        <v>2.158089598578272</v>
+        <v>30.91844034917091</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.036148914278166</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.12492956478991</v>
       </c>
       <c r="K7">
-        <v>12.14603166112942</v>
+        <v>18.03477651078102</v>
       </c>
       <c r="L7">
-        <v>6.123507819319948</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.11796867572684</v>
+        <v>10.19577370290401</v>
       </c>
       <c r="N7">
-        <v>17.83592796685748</v>
+        <v>6.335684337482824</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.490045106548365</v>
+      </c>
+      <c r="P7">
+        <v>14.0435172113713</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.64754825261596</v>
+        <v>13.12987715669936</v>
       </c>
       <c r="C8">
-        <v>6.918093257078631</v>
+        <v>7.199559972969584</v>
       </c>
       <c r="D8">
-        <v>6.300126218834673</v>
+        <v>5.147842804590261</v>
       </c>
       <c r="E8">
-        <v>6.317233624996497</v>
+        <v>7.335735293280164</v>
       </c>
       <c r="F8">
-        <v>36.01629834489054</v>
+        <v>23.26372049706406</v>
       </c>
       <c r="G8">
-        <v>2.146978950919153</v>
+        <v>31.78344355780091</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.746396743474171</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.16411988645505</v>
       </c>
       <c r="K8">
-        <v>13.01802357686999</v>
+        <v>18.10832392643736</v>
       </c>
       <c r="L8">
-        <v>6.207872257866495</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.51273838028125</v>
+        <v>11.11968518524918</v>
       </c>
       <c r="N8">
-        <v>17.72723963911243</v>
+        <v>6.584367473771506</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.986840328642614</v>
+      </c>
+      <c r="P8">
+        <v>13.83584461931498</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.77225891151292</v>
+        <v>15.12055910736415</v>
       </c>
       <c r="C9">
-        <v>7.839172434950097</v>
+        <v>7.956844846450148</v>
       </c>
       <c r="D9">
-        <v>6.140529473459917</v>
+        <v>5.36560407252326</v>
       </c>
       <c r="E9">
-        <v>6.31310680312965</v>
+        <v>7.747354173363346</v>
       </c>
       <c r="F9">
-        <v>38.4416880270977</v>
+        <v>24.53483840631217</v>
       </c>
       <c r="G9">
-        <v>2.126247489650366</v>
+        <v>33.57580132211467</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.21481208695767</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.28016830865333</v>
       </c>
       <c r="K9">
-        <v>14.65057271058194</v>
+        <v>18.3169152617119</v>
       </c>
       <c r="L9">
-        <v>6.395854335231204</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.30886387222677</v>
+        <v>12.74057614599091</v>
       </c>
       <c r="N9">
-        <v>17.55657008946696</v>
+        <v>7.044290616468555</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.90428477032711</v>
+      </c>
+      <c r="P9">
+        <v>13.44579600233637</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.25858348523919</v>
+        <v>16.43881539162525</v>
       </c>
       <c r="C10">
-        <v>8.46730742558592</v>
+        <v>8.512654890387635</v>
       </c>
       <c r="D10">
-        <v>6.021895536265498</v>
+        <v>5.533407198224801</v>
       </c>
       <c r="E10">
-        <v>6.320461561296058</v>
+        <v>7.942642677074171</v>
       </c>
       <c r="F10">
-        <v>40.27639595896117</v>
+        <v>25.37428946712175</v>
       </c>
       <c r="G10">
-        <v>2.1115494191839</v>
+        <v>34.71693457716898</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.877929083454078</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.34787394156819</v>
       </c>
       <c r="K10">
-        <v>15.93122562681392</v>
+        <v>18.41682322342052</v>
       </c>
       <c r="L10">
-        <v>6.548034310710325</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.903516704251</v>
+        <v>13.80390592773209</v>
       </c>
       <c r="N10">
-        <v>17.46014225139013</v>
+        <v>7.264271649650586</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.44733117988025</v>
+      </c>
+      <c r="P10">
+        <v>13.15006614935171</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.91759452401746</v>
+        <v>16.60637145080258</v>
       </c>
       <c r="C11">
-        <v>8.742916174629368</v>
+        <v>9.103722417000586</v>
       </c>
       <c r="D11">
-        <v>5.967303054484375</v>
+        <v>5.764241572354431</v>
       </c>
       <c r="E11">
-        <v>6.32622193196353</v>
+        <v>7.388743945486458</v>
       </c>
       <c r="F11">
-        <v>41.12170844954709</v>
+        <v>24.65398224280304</v>
       </c>
       <c r="G11">
-        <v>2.104951487950859</v>
+        <v>33.28126859427145</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.840020119675461</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.00962476529575</v>
       </c>
       <c r="K11">
-        <v>16.54463920983749</v>
+        <v>17.64739323140434</v>
       </c>
       <c r="L11">
-        <v>6.620398103425376</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>13.1755610895066</v>
+        <v>14.16343113222664</v>
       </c>
       <c r="N11">
-        <v>17.42333240603801</v>
+        <v>6.551906548724562</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.90086541783364</v>
+      </c>
+      <c r="P11">
+        <v>12.8702495144506</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.16465580023277</v>
+        <v>16.47731790518819</v>
       </c>
       <c r="C12">
-        <v>8.845870054808005</v>
+        <v>9.502368936361618</v>
       </c>
       <c r="D12">
-        <v>5.946510302329393</v>
+        <v>5.935762317126567</v>
       </c>
       <c r="E12">
-        <v>6.32876468566323</v>
+        <v>7.12218161116757</v>
       </c>
       <c r="F12">
-        <v>41.44331732205507</v>
+        <v>23.84747597370626</v>
       </c>
       <c r="G12">
-        <v>2.102463219900019</v>
+        <v>31.79533551707616</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.206149825139703</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.70375863516585</v>
       </c>
       <c r="K12">
-        <v>16.77309078396745</v>
+        <v>16.97271328767059</v>
       </c>
       <c r="L12">
-        <v>6.648258731727259</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>13.27876244651429</v>
+        <v>14.25067991456875</v>
       </c>
       <c r="N12">
-        <v>17.41048028005061</v>
+        <v>5.979873788000313</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.32083354108347</v>
+      </c>
+      <c r="P12">
+        <v>12.71743895632727</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.11155763492241</v>
+        <v>16.10797532960041</v>
       </c>
       <c r="C13">
-        <v>8.823759143100066</v>
+        <v>9.784362196558478</v>
       </c>
       <c r="D13">
-        <v>5.950994229232814</v>
+        <v>6.071471357290459</v>
       </c>
       <c r="E13">
-        <v>6.328200746201966</v>
+        <v>7.078151474362897</v>
       </c>
       <c r="F13">
-        <v>41.37398612642398</v>
+        <v>22.90897929456305</v>
       </c>
       <c r="G13">
-        <v>2.102998700154763</v>
+        <v>30.15183580007329</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.62624764089522</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.40299548852769</v>
       </c>
       <c r="K13">
-        <v>16.72405817148965</v>
+        <v>16.32975546574344</v>
       </c>
       <c r="L13">
-        <v>6.64223794678266</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>13.25652844789431</v>
+        <v>14.13653577643473</v>
       </c>
       <c r="N13">
-        <v>17.41319863993096</v>
+        <v>5.498565448113156</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.669139409722835</v>
+      </c>
+      <c r="P13">
+        <v>12.65219391546679</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.93797038152332</v>
+        <v>15.73528505394457</v>
       </c>
       <c r="C14">
-        <v>8.751414288363364</v>
+        <v>9.932957717976956</v>
       </c>
       <c r="D14">
-        <v>5.965595004705044</v>
+        <v>6.151190737892275</v>
       </c>
       <c r="E14">
-        <v>6.326423797227593</v>
+        <v>7.184257608826866</v>
       </c>
       <c r="F14">
-        <v>41.14813723179533</v>
+        <v>22.1869645427429</v>
       </c>
       <c r="G14">
-        <v>2.104746586738243</v>
+        <v>28.92217121119</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.635192520447799</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.19586346263114</v>
       </c>
       <c r="K14">
-        <v>16.56351018587086</v>
+        <v>15.89886889762393</v>
       </c>
       <c r="L14">
-        <v>6.622680988550504</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>13.18404800265725</v>
+        <v>13.96420194385247</v>
       </c>
       <c r="N14">
-        <v>17.42225282841146</v>
+        <v>5.23168194569839</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.176743560580668</v>
+      </c>
+      <c r="P14">
+        <v>12.64847848774241</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.83131842077991</v>
+        <v>15.5914963950974</v>
       </c>
       <c r="C15">
-        <v>8.706918407811571</v>
+        <v>9.943119661199216</v>
       </c>
       <c r="D15">
-        <v>5.97452186504005</v>
+        <v>6.161438417522231</v>
       </c>
       <c r="E15">
-        <v>6.325382872382962</v>
+        <v>7.221196980567046</v>
       </c>
       <c r="F15">
-        <v>41.00999432002176</v>
+        <v>21.98503385349932</v>
       </c>
       <c r="G15">
-        <v>2.105818471872651</v>
+        <v>28.59254814999786</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.871077880471517</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.1476485830574</v>
       </c>
       <c r="K15">
-        <v>16.46467425761599</v>
+        <v>15.80226111978964</v>
       </c>
       <c r="L15">
-        <v>6.610761671367156</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13.13967473782722</v>
+        <v>13.87837505563316</v>
       </c>
       <c r="N15">
-        <v>17.4279426097362</v>
+        <v>5.176158209314601</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.041488766782425</v>
+      </c>
+      <c r="P15">
+        <v>12.66308149129768</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.21516760286429</v>
+        <v>15.0964032217697</v>
       </c>
       <c r="C16">
-        <v>8.449095381429272</v>
+        <v>9.672327105664893</v>
       </c>
       <c r="D16">
-        <v>6.025448219470928</v>
+        <v>6.063219858263979</v>
       </c>
       <c r="E16">
-        <v>6.32013488725105</v>
+        <v>7.13250715562347</v>
       </c>
       <c r="F16">
-        <v>40.22136453470255</v>
+        <v>21.77792377936793</v>
       </c>
       <c r="G16">
-        <v>2.111982180405808</v>
+        <v>28.37295121020343</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.683246203413091</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.1767830416634</v>
       </c>
       <c r="K16">
-        <v>15.89059417986787</v>
+        <v>15.88820927048073</v>
       </c>
       <c r="L16">
-        <v>6.543368844705016</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.88576542392382</v>
+        <v>13.45841183377417</v>
       </c>
       <c r="N16">
-        <v>17.46269585900529</v>
+        <v>5.16539004381841</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.916529283840099</v>
+      </c>
+      <c r="P16">
+        <v>12.79757994767579</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.83276008850189</v>
+        <v>14.91756259461733</v>
       </c>
       <c r="C17">
-        <v>8.288362241670058</v>
+        <v>9.377320003513363</v>
       </c>
       <c r="D17">
-        <v>6.056509454859169</v>
+        <v>5.943623089254026</v>
       </c>
       <c r="E17">
-        <v>6.317543656107411</v>
+        <v>6.983438302640919</v>
       </c>
       <c r="F17">
-        <v>39.74027139799241</v>
+        <v>22.01466781468053</v>
       </c>
       <c r="G17">
-        <v>2.115784346208203</v>
+        <v>28.87674597020079</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.975435510034342</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.31000956428893</v>
       </c>
       <c r="K17">
-        <v>15.53145226751412</v>
+        <v>16.18212918107205</v>
       </c>
       <c r="L17">
-        <v>6.502833370221131</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.73036326777857</v>
+        <v>13.22547786484451</v>
       </c>
       <c r="N17">
-        <v>17.48587218928829</v>
+        <v>5.285772293993621</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.088742679093754</v>
+      </c>
+      <c r="P17">
+        <v>12.90249147188391</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.61119679373885</v>
+        <v>14.99877014065213</v>
       </c>
       <c r="C18">
-        <v>8.19495580289859</v>
+        <v>9.035082835193867</v>
       </c>
       <c r="D18">
-        <v>6.074318159915037</v>
+        <v>5.797020257986564</v>
       </c>
       <c r="E18">
-        <v>6.31627961978133</v>
+        <v>6.900148732871952</v>
       </c>
       <c r="F18">
-        <v>39.46456563856555</v>
+        <v>22.65186849116964</v>
       </c>
       <c r="G18">
-        <v>2.117979723563165</v>
+        <v>30.04896990384371</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.772095967868781</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.54643675888129</v>
       </c>
       <c r="K18">
-        <v>15.32228664433842</v>
+        <v>16.69172499149655</v>
       </c>
       <c r="L18">
-        <v>6.479813153295169</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.64112587969838</v>
+        <v>13.13340640424103</v>
       </c>
       <c r="N18">
-        <v>17.49986196365746</v>
+        <v>5.605420075984699</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.539228950501636</v>
+      </c>
+      <c r="P18">
+        <v>13.00493432845236</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.53590380502003</v>
+        <v>15.2819071113639</v>
       </c>
       <c r="C19">
-        <v>8.163164441193567</v>
+        <v>8.691741195537546</v>
       </c>
       <c r="D19">
-        <v>6.080338969146302</v>
+        <v>5.646541865988604</v>
       </c>
       <c r="E19">
-        <v>6.315890102058097</v>
+        <v>7.079428609350607</v>
       </c>
       <c r="F19">
-        <v>39.37139077758548</v>
+        <v>23.55413288667671</v>
       </c>
       <c r="G19">
-        <v>2.118724567159312</v>
+        <v>31.66001910200373</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.372671267676406</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.8492263900181</v>
       </c>
       <c r="K19">
-        <v>15.25101728274775</v>
+        <v>17.34727272276815</v>
       </c>
       <c r="L19">
-        <v>6.472069330850973</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.61093799275429</v>
+        <v>13.16357716677407</v>
       </c>
       <c r="N19">
-        <v>17.50470982015703</v>
+        <v>6.148190840828724</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.179497472237</v>
+      </c>
+      <c r="P19">
+        <v>13.11320947074667</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.87363524983829</v>
+        <v>16.10049913155067</v>
       </c>
       <c r="C20">
-        <v>8.305571315478003</v>
+        <v>8.371416203786589</v>
       </c>
       <c r="D20">
-        <v>6.05320902821656</v>
+        <v>5.490712414667633</v>
       </c>
       <c r="E20">
-        <v>6.317795968909796</v>
+        <v>7.887656093712625</v>
       </c>
       <c r="F20">
-        <v>39.7913807782606</v>
+        <v>25.14574144211067</v>
       </c>
       <c r="G20">
-        <v>2.1153787394737</v>
+        <v>34.40318773367954</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.96447962213513</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.32641534604649</v>
       </c>
       <c r="K20">
-        <v>15.56995144802075</v>
+        <v>18.3834344503488</v>
       </c>
       <c r="L20">
-        <v>6.507117892630651</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>12.74689130470087</v>
+        <v>13.5318401177651</v>
       </c>
       <c r="N20">
-        <v>17.48333628696834</v>
+        <v>7.20288377518608</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.30298848871985</v>
+      </c>
+      <c r="P20">
+        <v>13.22621527576244</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.98902484507662</v>
+        <v>17.13641250144518</v>
       </c>
       <c r="C21">
-        <v>8.772701680867367</v>
+        <v>8.724013605887132</v>
       </c>
       <c r="D21">
-        <v>5.961309906927722</v>
+        <v>5.589941765100314</v>
       </c>
       <c r="E21">
-        <v>6.326935802807117</v>
+        <v>8.17665736633219</v>
       </c>
       <c r="F21">
-        <v>41.21443366782699</v>
+        <v>25.99725868310465</v>
       </c>
       <c r="G21">
-        <v>2.104232933479721</v>
+        <v>35.64548202392807</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.663562231910199</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.45366129945641</v>
       </c>
       <c r="K21">
-        <v>16.61077008386824</v>
+        <v>18.62203850603451</v>
       </c>
       <c r="L21">
-        <v>6.628412846529301</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>13.2053324993978</v>
+        <v>14.32972661685234</v>
       </c>
       <c r="N21">
-        <v>17.41956328006452</v>
+        <v>7.519910206606091</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.84790548163828</v>
+      </c>
+      <c r="P21">
+        <v>13.03142030868679</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.70348401080041</v>
+        <v>17.76155936720598</v>
       </c>
       <c r="C22">
-        <v>9.069788657018677</v>
+        <v>8.967405899574361</v>
       </c>
       <c r="D22">
-        <v>5.900534243081134</v>
+        <v>5.661661046330683</v>
       </c>
       <c r="E22">
-        <v>6.335023255559125</v>
+        <v>8.31533165290992</v>
       </c>
       <c r="F22">
-        <v>42.15328168870145</v>
+        <v>26.49266850072168</v>
       </c>
       <c r="G22">
-        <v>2.097006776797323</v>
+        <v>36.34815315317064</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.633647806371983</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.51992789979787</v>
       </c>
       <c r="K22">
-        <v>17.26871682634305</v>
+        <v>18.73769396647919</v>
       </c>
       <c r="L22">
-        <v>6.710360379790117</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>13.50601544317759</v>
+        <v>14.82443989748185</v>
       </c>
       <c r="N22">
-        <v>17.38425869413472</v>
+        <v>7.672254500868893</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.14873241869221</v>
+      </c>
+      <c r="P22">
+        <v>12.8959675864235</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.32349175343662</v>
+        <v>17.43041784942906</v>
       </c>
       <c r="C23">
-        <v>8.911961895172052</v>
+        <v>8.83816874219737</v>
       </c>
       <c r="D23">
-        <v>5.933047419785477</v>
+        <v>5.62355365106152</v>
       </c>
       <c r="E23">
-        <v>6.330508421227448</v>
+        <v>8.241553521750113</v>
       </c>
       <c r="F23">
-        <v>41.65139533015002</v>
+        <v>26.22786917062136</v>
       </c>
       <c r="G23">
-        <v>2.100859062740184</v>
+        <v>35.97248054421604</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.580315101502962</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.4840831316166</v>
       </c>
       <c r="K23">
-        <v>16.91955497928259</v>
+        <v>18.67517671574712</v>
       </c>
       <c r="L23">
-        <v>6.666375980298185</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>13.34544655634072</v>
+        <v>14.56228600005621</v>
       </c>
       <c r="N23">
-        <v>17.40249222644733</v>
+        <v>7.591290981146487</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.9889487431111</v>
+      </c>
+      <c r="P23">
+        <v>12.96812631742507</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.85516091961072</v>
+        <v>16.1208223559806</v>
       </c>
       <c r="C24">
-        <v>8.297794207500047</v>
+        <v>8.334046597297219</v>
       </c>
       <c r="D24">
-        <v>6.054701300927853</v>
+        <v>5.475529172820874</v>
       </c>
       <c r="E24">
-        <v>6.31768119635663</v>
+        <v>7.956927512324455</v>
       </c>
       <c r="F24">
-        <v>39.76827148018975</v>
+        <v>25.23403404503564</v>
       </c>
       <c r="G24">
-        <v>2.115562084623997</v>
+        <v>34.56443642655332</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.945516203475229</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.35865052554973</v>
       </c>
       <c r="K24">
-        <v>15.5525543567016</v>
+        <v>18.4554860139671</v>
       </c>
       <c r="L24">
-        <v>6.50517997543835</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>12.73941864803245</v>
+        <v>13.5278772476675</v>
       </c>
       <c r="N24">
-        <v>17.48448070123877</v>
+        <v>7.277160946263877</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.36709124881671</v>
+      </c>
+      <c r="P24">
+        <v>13.24446230733716</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.21013083144275</v>
+        <v>14.58798323735447</v>
       </c>
       <c r="C25">
-        <v>7.598632025753346</v>
+        <v>7.758939073019508</v>
       </c>
       <c r="D25">
-        <v>6.18384538933477</v>
+        <v>5.308282544190327</v>
       </c>
       <c r="E25">
-        <v>6.312450268468845</v>
+        <v>7.63859318326158</v>
       </c>
       <c r="F25">
-        <v>37.77591772413111</v>
+        <v>24.18469057096218</v>
       </c>
       <c r="G25">
-        <v>2.131753671337204</v>
+        <v>33.08138556543558</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.354835519070337</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.24440363854468</v>
       </c>
       <c r="K25">
-        <v>14.21805857397598</v>
+        <v>18.25329236257614</v>
       </c>
       <c r="L25">
-        <v>6.342553197237648</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.09154487598401</v>
+        <v>12.32248495860304</v>
       </c>
       <c r="N25">
-        <v>17.59789496080085</v>
+        <v>6.923020169800413</v>
       </c>
       <c r="O25">
+        <v>10.66274317310114</v>
+      </c>
+      <c r="P25">
+        <v>13.54955252667407</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.41037811981304</v>
+        <v>12.98277809143806</v>
       </c>
       <c r="C2">
-        <v>7.308745678417809</v>
+        <v>7.417578540122349</v>
       </c>
       <c r="D2">
-        <v>5.178958406960361</v>
+        <v>5.194385062778159</v>
       </c>
       <c r="E2">
-        <v>7.39431669077584</v>
+        <v>7.276399420240977</v>
       </c>
       <c r="F2">
-        <v>23.43503936585642</v>
+        <v>22.38113524150751</v>
       </c>
       <c r="G2">
-        <v>32.02458773744832</v>
+        <v>29.80302023133337</v>
       </c>
       <c r="H2">
-        <v>2.670414654594629</v>
+        <v>2.539310257877336</v>
       </c>
       <c r="J2">
-        <v>11.17732785038798</v>
+        <v>11.02841300856609</v>
       </c>
       <c r="K2">
-        <v>18.13249749463464</v>
+        <v>17.11753955130739</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.97571720180672</v>
       </c>
       <c r="M2">
-        <v>11.35709495459339</v>
+        <v>11.40572200006183</v>
       </c>
       <c r="N2">
-        <v>6.649938875582004</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.11782346461277</v>
+        <v>11.33616970612117</v>
       </c>
       <c r="P2">
-        <v>13.78076764960399</v>
+        <v>6.822475585539365</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.957249854708</v>
+      </c>
+      <c r="R2">
+        <v>13.48725659804921</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.581060890681</v>
+        <v>12.143011865686</v>
       </c>
       <c r="C3">
-        <v>6.987270902291197</v>
+        <v>7.003709735286002</v>
       </c>
       <c r="D3">
-        <v>5.087652115414688</v>
+        <v>5.072970812992601</v>
       </c>
       <c r="E3">
-        <v>7.222581639530645</v>
+        <v>7.1284088349723</v>
       </c>
       <c r="F3">
-        <v>22.94319934499334</v>
+        <v>21.9664328137435</v>
       </c>
       <c r="G3">
-        <v>31.33270214366765</v>
+        <v>29.29717551325199</v>
       </c>
       <c r="H3">
-        <v>2.893593758618415</v>
+        <v>2.740866975173479</v>
       </c>
       <c r="J3">
-        <v>11.14195000304834</v>
+        <v>10.97347379030641</v>
       </c>
       <c r="K3">
-        <v>18.06719289061062</v>
+        <v>17.10550232176376</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.05921310886452</v>
       </c>
       <c r="M3">
-        <v>10.65405902930453</v>
+        <v>11.31880600630525</v>
       </c>
       <c r="N3">
-        <v>6.457708649563234</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.733783082941969</v>
+        <v>10.65159056434017</v>
       </c>
       <c r="P3">
-        <v>13.94182879564942</v>
+        <v>6.638675080345003</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.584711438880802</v>
+      </c>
+      <c r="R3">
+        <v>13.6459864238048</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.04585794170764</v>
+        <v>11.60186351117693</v>
       </c>
       <c r="C4">
-        <v>6.78198178500447</v>
+        <v>6.738309577070973</v>
       </c>
       <c r="D4">
-        <v>5.029855476782695</v>
+        <v>4.996277884281372</v>
       </c>
       <c r="E4">
-        <v>7.114095338521176</v>
+        <v>7.034893193444446</v>
       </c>
       <c r="F4">
-        <v>22.64983349525688</v>
+        <v>21.7190605116575</v>
       </c>
       <c r="G4">
-        <v>30.92067345371475</v>
+        <v>29.00232423933554</v>
       </c>
       <c r="H4">
-        <v>3.035358416230071</v>
+        <v>2.868989270401082</v>
       </c>
       <c r="J4">
-        <v>11.12501153199936</v>
+        <v>10.94175988826227</v>
       </c>
       <c r="K4">
-        <v>18.03493558490959</v>
+        <v>17.10408478707465</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.11162719161018</v>
       </c>
       <c r="M4">
-        <v>10.19833526750351</v>
+        <v>11.28705064191286</v>
       </c>
       <c r="N4">
-        <v>6.33635883888754</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.491391929059553</v>
+        <v>10.20786872688638</v>
       </c>
       <c r="P4">
-        <v>14.04295603996956</v>
+        <v>6.523060297134153</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.349214530312928</v>
+      </c>
+      <c r="R4">
+        <v>13.74550775362856</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.82132114939799</v>
+        <v>11.38761804314029</v>
       </c>
       <c r="C5">
-        <v>6.696373107274832</v>
+        <v>6.627376545849986</v>
       </c>
       <c r="D5">
-        <v>5.005878597872668</v>
+        <v>4.964508383470163</v>
       </c>
       <c r="E5">
-        <v>7.069125665964927</v>
+        <v>6.996119665880441</v>
       </c>
       <c r="F5">
-        <v>22.53254798987961</v>
+        <v>21.62013450049725</v>
       </c>
       <c r="G5">
-        <v>30.75610324010257</v>
+        <v>28.88612457109086</v>
       </c>
       <c r="H5">
-        <v>3.094338078608616</v>
+        <v>2.922313953745934</v>
       </c>
       <c r="J5">
-        <v>11.11928359644016</v>
+        <v>10.92933667273043</v>
       </c>
       <c r="K5">
-        <v>18.0237125588462</v>
+        <v>17.10496263076663</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.13327500994722</v>
       </c>
       <c r="M5">
-        <v>10.00658689549457</v>
+        <v>11.27952667490016</v>
       </c>
       <c r="N5">
-        <v>6.286109140871337</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.391076546093737</v>
+        <v>10.02119120162811</v>
       </c>
       <c r="P5">
-        <v>14.08473961940946</v>
+        <v>6.475291785870545</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.251659799060326</v>
+      </c>
+      <c r="R5">
+        <v>13.78659502022213</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.78365170724591</v>
+        <v>11.35164931010245</v>
       </c>
       <c r="C6">
-        <v>6.682041172014531</v>
+        <v>6.60879023958838</v>
       </c>
       <c r="D6">
-        <v>5.001871987335059</v>
+        <v>4.959202577883508</v>
       </c>
       <c r="E6">
-        <v>7.061612687463962</v>
+        <v>6.9896412237813</v>
       </c>
       <c r="F6">
-        <v>22.51321218942991</v>
+        <v>21.60382300081342</v>
       </c>
       <c r="G6">
-        <v>30.72898119490527</v>
+        <v>28.86706820649677</v>
       </c>
       <c r="H6">
-        <v>3.10420521181843</v>
+        <v>2.931236207350977</v>
       </c>
       <c r="J6">
-        <v>11.11840258391346</v>
+        <v>10.92730381710021</v>
       </c>
       <c r="K6">
-        <v>18.02196360893066</v>
+        <v>17.10519495096715</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.13688705503595</v>
       </c>
       <c r="M6">
-        <v>9.974383153494895</v>
+        <v>11.2786033655509</v>
       </c>
       <c r="N6">
-        <v>6.277718100693511</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.374330008884931</v>
+        <v>9.989840704423804</v>
       </c>
       <c r="P6">
-        <v>14.09171271054396</v>
+        <v>6.467321544701002</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.235368509313714</v>
+      </c>
+      <c r="R6">
+        <v>13.79345001334169</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.0428556701736</v>
+        <v>11.59485439616867</v>
       </c>
       <c r="C7">
-        <v>6.780835085945471</v>
+        <v>6.72890984769915</v>
       </c>
       <c r="D7">
-        <v>5.029533818053034</v>
+        <v>4.998279846177607</v>
       </c>
       <c r="E7">
-        <v>7.113491935379628</v>
+        <v>7.035359469056707</v>
       </c>
       <c r="F7">
-        <v>22.64824245605555</v>
+        <v>21.69928055633975</v>
       </c>
       <c r="G7">
-        <v>30.91844034917091</v>
+        <v>29.07276085905903</v>
       </c>
       <c r="H7">
-        <v>3.036148914278166</v>
+        <v>2.870358478454375</v>
       </c>
       <c r="J7">
-        <v>11.12492956478991</v>
+        <v>10.89879280195501</v>
       </c>
       <c r="K7">
-        <v>18.03477651078102</v>
+        <v>17.09488239891182</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.10377045657547</v>
       </c>
       <c r="M7">
-        <v>10.19577370290401</v>
+        <v>11.28111584026844</v>
       </c>
       <c r="N7">
-        <v>6.335684337482824</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.490045106548365</v>
+        <v>10.19952549014846</v>
       </c>
       <c r="P7">
-        <v>14.0435172113713</v>
+        <v>6.521787726964329</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.346187653165854</v>
+      </c>
+      <c r="R7">
+        <v>13.7441840962526</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.12987715669936</v>
+        <v>12.68678503259514</v>
       </c>
       <c r="C8">
-        <v>7.199559972969584</v>
+        <v>7.252392314301984</v>
       </c>
       <c r="D8">
-        <v>5.147842804590261</v>
+        <v>5.16107732077122</v>
       </c>
       <c r="E8">
-        <v>7.335735293280164</v>
+        <v>7.229227299710948</v>
       </c>
       <c r="F8">
-        <v>23.26372049706406</v>
+        <v>22.17703831194395</v>
       </c>
       <c r="G8">
-        <v>31.78344355780091</v>
+        <v>29.8604568266405</v>
       </c>
       <c r="H8">
-        <v>2.746396743474171</v>
+        <v>2.609938216008657</v>
       </c>
       <c r="J8">
-        <v>11.16411988645505</v>
+        <v>10.8694277586476</v>
       </c>
       <c r="K8">
-        <v>18.10832392643736</v>
+        <v>17.08197605933889</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.97916343868936</v>
       </c>
       <c r="M8">
-        <v>11.11968518524918</v>
+        <v>11.35036939457304</v>
       </c>
       <c r="N8">
-        <v>6.584367473771506</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.986840328642614</v>
+        <v>11.08694059398385</v>
       </c>
       <c r="P8">
-        <v>13.83584461931498</v>
+        <v>6.757726132459252</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.82480642201377</v>
+      </c>
+      <c r="R8">
+        <v>13.53572910198696</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.12055910736415</v>
+        <v>14.60925820474555</v>
       </c>
       <c r="C9">
-        <v>7.956844846450148</v>
+        <v>8.216819917708857</v>
       </c>
       <c r="D9">
-        <v>5.36560407252326</v>
+        <v>5.453412833456181</v>
       </c>
       <c r="E9">
-        <v>7.747354173363346</v>
+        <v>7.584724775571973</v>
       </c>
       <c r="F9">
-        <v>24.53483840631217</v>
+        <v>23.23703263296118</v>
       </c>
       <c r="G9">
-        <v>33.57580132211467</v>
+        <v>31.26205962050532</v>
       </c>
       <c r="H9">
-        <v>2.21481208695767</v>
+        <v>2.13076765110878</v>
       </c>
       <c r="J9">
-        <v>11.28016830865333</v>
+        <v>10.98242824847192</v>
       </c>
       <c r="K9">
-        <v>18.3169152617119</v>
+        <v>17.13979139677867</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.77366180354705</v>
       </c>
       <c r="M9">
-        <v>12.74057614599091</v>
+        <v>11.67841155152084</v>
       </c>
       <c r="N9">
-        <v>7.044290616468555</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.90428477032711</v>
+        <v>12.66258401478229</v>
       </c>
       <c r="P9">
-        <v>13.44579600233637</v>
+        <v>7.199231189636667</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.71186145143615</v>
+      </c>
+      <c r="R9">
+        <v>13.1494764446078</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.43881539162525</v>
+        <v>15.81591637367987</v>
       </c>
       <c r="C10">
-        <v>8.512654890387635</v>
+        <v>8.867400571079379</v>
       </c>
       <c r="D10">
-        <v>5.533407198224801</v>
+        <v>5.687274745372605</v>
       </c>
       <c r="E10">
-        <v>7.942642677074171</v>
+        <v>7.752622911385513</v>
       </c>
       <c r="F10">
-        <v>25.37428946712175</v>
+        <v>23.83641031093589</v>
       </c>
       <c r="G10">
-        <v>34.71693457716898</v>
+        <v>32.54753624972827</v>
       </c>
       <c r="H10">
-        <v>1.877929083454078</v>
+        <v>1.833338570067336</v>
       </c>
       <c r="J10">
-        <v>11.34787394156819</v>
+        <v>10.80641995929735</v>
       </c>
       <c r="K10">
-        <v>18.41682322342052</v>
+        <v>17.08387179055056</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.53266996508661</v>
       </c>
       <c r="M10">
-        <v>13.80390592773209</v>
+        <v>11.91529068316372</v>
       </c>
       <c r="N10">
-        <v>7.264271649650586</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.44733117988025</v>
+        <v>13.67011864214192</v>
       </c>
       <c r="P10">
-        <v>13.15006614935171</v>
+        <v>7.404149193155077</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.22590853184435</v>
+      </c>
+      <c r="R10">
+        <v>12.85329759203769</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.60637145080258</v>
+        <v>15.9646696815312</v>
       </c>
       <c r="C11">
-        <v>9.103722417000586</v>
+        <v>9.402577272835572</v>
       </c>
       <c r="D11">
-        <v>5.764241572354431</v>
+        <v>5.972847160191433</v>
       </c>
       <c r="E11">
-        <v>7.388743945486458</v>
+        <v>7.244304258267395</v>
       </c>
       <c r="F11">
-        <v>24.65398224280304</v>
+        <v>22.96809608576232</v>
       </c>
       <c r="G11">
-        <v>33.28126859427145</v>
+        <v>32.04794383751705</v>
       </c>
       <c r="H11">
-        <v>2.840020119675461</v>
+        <v>2.820265324039373</v>
       </c>
       <c r="J11">
-        <v>11.00962476529575</v>
+        <v>10.05755275269166</v>
       </c>
       <c r="K11">
-        <v>17.64739323140434</v>
+        <v>16.2910205035809</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.87816941035759</v>
       </c>
       <c r="M11">
-        <v>14.16343113222664</v>
+        <v>11.4078388324808</v>
       </c>
       <c r="N11">
-        <v>6.551906548724562</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.90086541783364</v>
+        <v>13.97209196424228</v>
       </c>
       <c r="P11">
-        <v>12.8702495144506</v>
+        <v>6.670962735642043</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.67126858789422</v>
+      </c>
+      <c r="R11">
+        <v>12.62184702542599</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.47731790518819</v>
+        <v>15.85435172666448</v>
       </c>
       <c r="C12">
-        <v>9.502368936361618</v>
+        <v>9.750146760529974</v>
       </c>
       <c r="D12">
-        <v>5.935762317126567</v>
+        <v>6.167296280370413</v>
       </c>
       <c r="E12">
-        <v>7.12218161116757</v>
+        <v>7.014322044471863</v>
       </c>
       <c r="F12">
-        <v>23.84747597370626</v>
+        <v>22.14943588664186</v>
       </c>
       <c r="G12">
-        <v>31.79533551707616</v>
+        <v>31.08142047041424</v>
       </c>
       <c r="H12">
-        <v>4.206149825139703</v>
+        <v>4.193848389061663</v>
       </c>
       <c r="J12">
-        <v>10.70375863516585</v>
+        <v>9.6268941469169</v>
       </c>
       <c r="K12">
-        <v>16.97271328767059</v>
+        <v>15.66850295619248</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.41607786403349</v>
       </c>
       <c r="M12">
-        <v>14.25067991456875</v>
+        <v>10.94138511911457</v>
       </c>
       <c r="N12">
-        <v>5.979873788000313</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.32083354108347</v>
+        <v>14.03799104258053</v>
       </c>
       <c r="P12">
-        <v>12.71743895632727</v>
+        <v>6.084444684042775</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.09633307020299</v>
+      </c>
+      <c r="R12">
+        <v>12.51804989037025</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.10797532960041</v>
+        <v>15.5426048195945</v>
       </c>
       <c r="C13">
-        <v>9.784362196558478</v>
+        <v>10.00164011809558</v>
       </c>
       <c r="D13">
-        <v>6.071471357290459</v>
+        <v>6.294018252857497</v>
       </c>
       <c r="E13">
-        <v>7.078151474362897</v>
+        <v>7.006429478372893</v>
       </c>
       <c r="F13">
-        <v>22.90897929456305</v>
+        <v>21.34442753225756</v>
       </c>
       <c r="G13">
-        <v>30.15183580007329</v>
+        <v>29.50030576624946</v>
       </c>
       <c r="H13">
-        <v>5.62624764089522</v>
+        <v>5.614307995290762</v>
       </c>
       <c r="J13">
-        <v>10.40299548852769</v>
+        <v>9.460682597967436</v>
       </c>
       <c r="K13">
-        <v>16.32975546574344</v>
+        <v>15.15505181337811</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.0714508208288</v>
       </c>
       <c r="M13">
-        <v>14.13653577643473</v>
+        <v>10.49771842041748</v>
       </c>
       <c r="N13">
-        <v>5.498565448113156</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.669139409722835</v>
+        <v>13.93991579876066</v>
       </c>
       <c r="P13">
-        <v>12.65219391546679</v>
+        <v>5.594062551927052</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.463458360756865</v>
+      </c>
+      <c r="R13">
+        <v>12.49856956573629</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.73528505394457</v>
+        <v>15.22835258110595</v>
       </c>
       <c r="C14">
-        <v>9.932957717976956</v>
+        <v>10.13834066109897</v>
       </c>
       <c r="D14">
-        <v>6.151190737892275</v>
+        <v>6.352248396391916</v>
       </c>
       <c r="E14">
-        <v>7.184257608826866</v>
+        <v>7.139789251304049</v>
       </c>
       <c r="F14">
-        <v>22.1869645427429</v>
+        <v>20.77939084878987</v>
       </c>
       <c r="G14">
-        <v>28.92217121119</v>
+        <v>28.11911351834179</v>
       </c>
       <c r="H14">
-        <v>6.635192520447799</v>
+        <v>6.621974984211182</v>
       </c>
       <c r="J14">
-        <v>10.19586346263114</v>
+        <v>9.446420128411845</v>
       </c>
       <c r="K14">
-        <v>15.89886889762393</v>
+        <v>14.84448662185045</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.87773185618978</v>
       </c>
       <c r="M14">
-        <v>13.96420194385247</v>
+        <v>10.20113748056608</v>
       </c>
       <c r="N14">
-        <v>5.23168194569839</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.176743560580668</v>
+        <v>13.79550059556887</v>
       </c>
       <c r="P14">
-        <v>12.64847848774241</v>
+        <v>5.323127204956753</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.990046461615899</v>
+      </c>
+      <c r="R14">
+        <v>12.52096935799324</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.5914963950974</v>
+        <v>15.10674213443544</v>
       </c>
       <c r="C15">
-        <v>9.943119661199216</v>
+        <v>10.15005558000043</v>
       </c>
       <c r="D15">
-        <v>6.161438417522231</v>
+        <v>6.350892122394566</v>
       </c>
       <c r="E15">
-        <v>7.221196980567046</v>
+        <v>7.18523381734899</v>
       </c>
       <c r="F15">
-        <v>21.98503385349932</v>
+        <v>20.64259262262744</v>
       </c>
       <c r="G15">
-        <v>28.59254814999786</v>
+        <v>27.67138902511405</v>
       </c>
       <c r="H15">
-        <v>6.871077880471517</v>
+        <v>6.856860858844205</v>
       </c>
       <c r="J15">
-        <v>10.1476485830574</v>
+        <v>9.486677493173797</v>
       </c>
       <c r="K15">
-        <v>15.80226111978964</v>
+        <v>14.7892683972333</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.84965857343628</v>
       </c>
       <c r="M15">
-        <v>13.87837505563316</v>
+        <v>10.13514853763754</v>
       </c>
       <c r="N15">
-        <v>5.176158209314601</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>9.041488766782425</v>
+        <v>13.72376548171618</v>
       </c>
       <c r="P15">
-        <v>12.66308149129768</v>
+        <v>5.268010075743484</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.861836159718258</v>
+      </c>
+      <c r="R15">
+        <v>12.53965800686636</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.0964032217697</v>
+        <v>14.67971285840616</v>
       </c>
       <c r="C16">
-        <v>9.672327105664893</v>
+        <v>9.91220833789904</v>
       </c>
       <c r="D16">
-        <v>6.063219858263979</v>
+        <v>6.199618383114887</v>
       </c>
       <c r="E16">
-        <v>7.13250715562347</v>
+        <v>7.113067530049838</v>
       </c>
       <c r="F16">
-        <v>21.77792377936793</v>
+        <v>20.65900359088316</v>
       </c>
       <c r="G16">
-        <v>28.37295121020343</v>
+        <v>26.79582152365986</v>
       </c>
       <c r="H16">
-        <v>6.683246203413091</v>
+        <v>6.661276916993591</v>
       </c>
       <c r="J16">
-        <v>10.1767830416634</v>
+        <v>9.875572505863687</v>
       </c>
       <c r="K16">
-        <v>15.88820927048073</v>
+        <v>14.97765379340711</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.03049357972909</v>
       </c>
       <c r="M16">
-        <v>13.45841183377417</v>
+        <v>10.19150938460074</v>
       </c>
       <c r="N16">
-        <v>5.16539004381841</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.916529283840099</v>
+        <v>13.36547940947173</v>
       </c>
       <c r="P16">
-        <v>12.79757994767579</v>
+        <v>5.271516227883684</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.757193875640352</v>
+      </c>
+      <c r="R16">
+        <v>12.65859707559415</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91756259461733</v>
+        <v>14.51609924883639</v>
       </c>
       <c r="C17">
-        <v>9.377320003513363</v>
+        <v>9.636772141703664</v>
       </c>
       <c r="D17">
-        <v>5.943623089254026</v>
+        <v>6.056559915154491</v>
       </c>
       <c r="E17">
-        <v>6.983438302640919</v>
+        <v>6.956576835961806</v>
       </c>
       <c r="F17">
-        <v>22.01466781468053</v>
+        <v>20.95846745382423</v>
       </c>
       <c r="G17">
-        <v>28.87674597020079</v>
+        <v>26.97614216313118</v>
       </c>
       <c r="H17">
-        <v>5.975435510034342</v>
+        <v>5.946450645092746</v>
       </c>
       <c r="J17">
-        <v>10.31000956428893</v>
+        <v>10.14962269675474</v>
       </c>
       <c r="K17">
-        <v>16.18212918107205</v>
+        <v>15.27928161882715</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.27589648921721</v>
       </c>
       <c r="M17">
-        <v>13.22547786484451</v>
+        <v>10.3808978292793</v>
       </c>
       <c r="N17">
-        <v>5.285772293993621</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>9.088742679093754</v>
+        <v>13.15788540616011</v>
       </c>
       <c r="P17">
-        <v>12.90249147188391</v>
+        <v>5.404474273722412</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.93313885028015</v>
+      </c>
+      <c r="R17">
+        <v>12.7425608349089</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.99877014065213</v>
+        <v>14.57493230590804</v>
       </c>
       <c r="C18">
-        <v>9.035082835193867</v>
+        <v>9.317568465663349</v>
       </c>
       <c r="D18">
-        <v>5.797020257986564</v>
+        <v>5.901998018654933</v>
       </c>
       <c r="E18">
-        <v>6.900148732871952</v>
+        <v>6.842227118474793</v>
       </c>
       <c r="F18">
-        <v>22.65186849116964</v>
+        <v>21.56461917087379</v>
       </c>
       <c r="G18">
-        <v>30.04896990384371</v>
+        <v>27.91873324183037</v>
       </c>
       <c r="H18">
-        <v>4.772095967868781</v>
+        <v>4.73442067333368</v>
       </c>
       <c r="J18">
-        <v>10.54643675888129</v>
+        <v>10.42215236708965</v>
       </c>
       <c r="K18">
-        <v>16.69172499149655</v>
+        <v>15.734574564599</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.62553698574524</v>
       </c>
       <c r="M18">
-        <v>13.13340640424103</v>
+        <v>10.71483678122383</v>
       </c>
       <c r="N18">
-        <v>5.605420075984699</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.539228950501636</v>
+        <v>13.07194857823999</v>
       </c>
       <c r="P18">
-        <v>13.00493432845236</v>
+        <v>5.735999298428085</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.376731498157168</v>
+      </c>
+      <c r="R18">
+        <v>12.81562760878156</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.2819071113639</v>
+        <v>14.8106141402087</v>
       </c>
       <c r="C19">
-        <v>8.691741195537546</v>
+        <v>9.001506800935337</v>
       </c>
       <c r="D19">
-        <v>5.646541865988604</v>
+        <v>5.752287833628614</v>
       </c>
       <c r="E19">
-        <v>7.079428609350607</v>
+        <v>6.972483631748105</v>
       </c>
       <c r="F19">
-        <v>23.55413288667671</v>
+        <v>22.37842347499619</v>
       </c>
       <c r="G19">
-        <v>31.66001910200373</v>
+        <v>29.33140436936551</v>
       </c>
       <c r="H19">
-        <v>3.372671267676406</v>
+        <v>3.322904797161789</v>
       </c>
       <c r="J19">
-        <v>10.8492263900181</v>
+        <v>10.70366661519647</v>
       </c>
       <c r="K19">
-        <v>17.34727272276815</v>
+        <v>16.29554373404681</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.04557528115119</v>
       </c>
       <c r="M19">
-        <v>13.16357716677407</v>
+        <v>11.14993808895999</v>
       </c>
       <c r="N19">
-        <v>6.148190840828724</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.179497472237</v>
+        <v>13.09640213657292</v>
       </c>
       <c r="P19">
-        <v>13.11320947074667</v>
+        <v>6.288167249780351</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.00330150260866</v>
+      </c>
+      <c r="R19">
+        <v>12.88665227729483</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.10049913155067</v>
+        <v>15.51815830111407</v>
       </c>
       <c r="C20">
-        <v>8.371416203786589</v>
+        <v>8.725475445353451</v>
       </c>
       <c r="D20">
-        <v>5.490712414667633</v>
+        <v>5.61874800436377</v>
       </c>
       <c r="E20">
-        <v>7.887656093712625</v>
+        <v>7.70159509420764</v>
       </c>
       <c r="F20">
-        <v>25.14574144211067</v>
+        <v>23.73104318464262</v>
       </c>
       <c r="G20">
-        <v>34.40318773367954</v>
+        <v>31.95733767983604</v>
       </c>
       <c r="H20">
-        <v>1.96447962213513</v>
+        <v>1.907724991937583</v>
       </c>
       <c r="J20">
-        <v>11.32641534604649</v>
+        <v>10.99334522045147</v>
       </c>
       <c r="K20">
-        <v>18.3834344503488</v>
+        <v>17.12400012317725</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.61502923659325</v>
       </c>
       <c r="M20">
-        <v>13.5318401177651</v>
+        <v>11.86943756679379</v>
       </c>
       <c r="N20">
-        <v>7.20288377518608</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>11.30298848871985</v>
+        <v>13.42886825086899</v>
       </c>
       <c r="P20">
-        <v>13.22621527576244</v>
+        <v>7.348391357437927</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.09450246028181</v>
+      </c>
+      <c r="R20">
+        <v>12.93511608461323</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.13641250144518</v>
+        <v>16.40165420690258</v>
       </c>
       <c r="C21">
-        <v>8.724013605887132</v>
+        <v>9.032646977694627</v>
       </c>
       <c r="D21">
-        <v>5.589941765100314</v>
+        <v>5.813356725383331</v>
       </c>
       <c r="E21">
-        <v>8.17665736633219</v>
+        <v>7.980708327228557</v>
       </c>
       <c r="F21">
-        <v>25.99725868310465</v>
+        <v>24.06598481778603</v>
       </c>
       <c r="G21">
-        <v>35.64548202392807</v>
+        <v>34.53423230457927</v>
       </c>
       <c r="H21">
-        <v>1.663562231910199</v>
+        <v>1.646816954642142</v>
       </c>
       <c r="J21">
-        <v>11.45366129945641</v>
+        <v>10.19696142155562</v>
       </c>
       <c r="K21">
-        <v>18.62203850603451</v>
+        <v>17.05076253454019</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.40667299710451</v>
       </c>
       <c r="M21">
-        <v>14.32972661685234</v>
+        <v>12.04461946277711</v>
       </c>
       <c r="N21">
-        <v>7.519910206606091</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.84790548163828</v>
+        <v>14.09972049921022</v>
       </c>
       <c r="P21">
-        <v>13.03142030868679</v>
+        <v>7.64670092450705</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.58667081143711</v>
+      </c>
+      <c r="R21">
+        <v>12.70180905807207</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.76155936720598</v>
+        <v>16.93063808024136</v>
       </c>
       <c r="C22">
-        <v>8.967405899574361</v>
+        <v>9.238662740594647</v>
       </c>
       <c r="D22">
-        <v>5.661661046330683</v>
+        <v>5.950835692549328</v>
       </c>
       <c r="E22">
-        <v>8.31533165290992</v>
+        <v>8.119498132040885</v>
       </c>
       <c r="F22">
-        <v>26.49266850072168</v>
+        <v>24.21130525268784</v>
       </c>
       <c r="G22">
-        <v>36.34815315317064</v>
+        <v>36.2171257899768</v>
       </c>
       <c r="H22">
-        <v>1.633647806371983</v>
+        <v>1.625150104341812</v>
       </c>
       <c r="J22">
-        <v>11.51992789979787</v>
+        <v>9.653310385614695</v>
       </c>
       <c r="K22">
-        <v>18.73769396647919</v>
+        <v>16.95471487951604</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.23658776440539</v>
       </c>
       <c r="M22">
-        <v>14.82443989748185</v>
+        <v>12.12853801533855</v>
       </c>
       <c r="N22">
-        <v>7.672254500868893</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.14873241869221</v>
+        <v>14.50991362992671</v>
       </c>
       <c r="P22">
-        <v>12.8959675864235</v>
+        <v>7.786519011628711</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.85263517354338</v>
+      </c>
+      <c r="R22">
+        <v>12.54336967592465</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.43041784942906</v>
+        <v>16.65854260234543</v>
       </c>
       <c r="C23">
-        <v>8.83816874219737</v>
+        <v>9.145183068648265</v>
       </c>
       <c r="D23">
-        <v>5.62355365106152</v>
+        <v>5.871181034745543</v>
       </c>
       <c r="E23">
-        <v>8.241553521750113</v>
+        <v>8.042497045849101</v>
       </c>
       <c r="F23">
-        <v>26.22786917062136</v>
+        <v>24.17638709887022</v>
       </c>
       <c r="G23">
-        <v>35.97248054421604</v>
+        <v>35.14158733617245</v>
       </c>
       <c r="H23">
-        <v>1.580315101502962</v>
+        <v>1.574353435071217</v>
       </c>
       <c r="J23">
-        <v>11.4840831316166</v>
+        <v>10.0311298226304</v>
       </c>
       <c r="K23">
-        <v>18.67517671574712</v>
+        <v>17.02875615433254</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.34309225898696</v>
       </c>
       <c r="M23">
-        <v>14.56228600005621</v>
+        <v>12.10177524330053</v>
       </c>
       <c r="N23">
-        <v>7.591290981146487</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.9889487431111</v>
+        <v>14.30396388096253</v>
       </c>
       <c r="P23">
-        <v>12.96812631742507</v>
+        <v>7.713417867811838</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.71519415566478</v>
+      </c>
+      <c r="R23">
+        <v>12.63146480820989</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.1208223559806</v>
+        <v>15.53467502383504</v>
       </c>
       <c r="C24">
-        <v>8.334046597297219</v>
+        <v>8.689860656124408</v>
       </c>
       <c r="D24">
-        <v>5.475529172820874</v>
+        <v>5.602445462327421</v>
       </c>
       <c r="E24">
-        <v>7.956927512324455</v>
+        <v>7.766236804009045</v>
       </c>
       <c r="F24">
-        <v>25.23403404503564</v>
+        <v>23.81338564867835</v>
       </c>
       <c r="G24">
-        <v>34.56443642655332</v>
+        <v>32.08970963045129</v>
       </c>
       <c r="H24">
-        <v>1.945516203475229</v>
+        <v>1.888711360148884</v>
       </c>
       <c r="J24">
-        <v>11.35865052554973</v>
+        <v>11.02898434405187</v>
       </c>
       <c r="K24">
-        <v>18.4554860139671</v>
+        <v>17.18769962787116</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.6645973785572</v>
       </c>
       <c r="M24">
-        <v>13.5278772476675</v>
+        <v>11.9162499940759</v>
       </c>
       <c r="N24">
-        <v>7.277160946263877</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.36709124881671</v>
+        <v>13.42510794362261</v>
       </c>
       <c r="P24">
-        <v>13.24446230733716</v>
+        <v>7.423589604348601</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.15749080682955</v>
+      </c>
+      <c r="R24">
+        <v>12.94868938000728</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.58798323735447</v>
+        <v>14.12028322332856</v>
       </c>
       <c r="C25">
-        <v>7.758939073019508</v>
+        <v>7.975777923651915</v>
       </c>
       <c r="D25">
-        <v>5.308282544190327</v>
+        <v>5.372922118075492</v>
       </c>
       <c r="E25">
-        <v>7.63859318326158</v>
+        <v>7.48937663837162</v>
       </c>
       <c r="F25">
-        <v>24.18469057096218</v>
+        <v>22.96929813031386</v>
       </c>
       <c r="G25">
-        <v>33.08138556543558</v>
+        <v>30.77208729192619</v>
       </c>
       <c r="H25">
-        <v>2.354835519070337</v>
+        <v>2.256076356927618</v>
       </c>
       <c r="J25">
-        <v>11.24440363854468</v>
+        <v>11.00874327665494</v>
       </c>
       <c r="K25">
-        <v>18.25329236257614</v>
+        <v>17.13125366801484</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.83815673769385</v>
       </c>
       <c r="M25">
-        <v>12.32248495860304</v>
+        <v>11.58114237092761</v>
       </c>
       <c r="N25">
-        <v>6.923020169800413</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.66274317310114</v>
+        <v>12.26335027672626</v>
       </c>
       <c r="P25">
-        <v>13.54955252667407</v>
+        <v>7.083295760740336</v>
       </c>
       <c r="Q25">
+        <v>10.48083058705259</v>
+      </c>
+      <c r="R25">
+        <v>13.25471021967275</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
